--- a/definicao-variaveis.xlsx
+++ b/definicao-variaveis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Laboratoria\2- BootCamp\Projetos\Projeto3-Risco-Relativo\Risco-Relativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0350CCD-5E1B-49FA-A410-F75E77144F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACBBA7-9579-4EDA-964C-00B5FAEC88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{915B2B48-E169-42BD-868F-4EBC9A772E1A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>Número de identificação do cliente (único para cada cliente)</t>
   </si>
@@ -171,13 +171,19 @@
   </si>
   <si>
     <t>número de vezes que atrasou o pagamento do empréstimo 60 89 dias</t>
+  </si>
+  <si>
+    <t>En general, el valor ideal se sitúa entre el 0.4 y 0.6. Si la ratio es superior, la empresa tiene excesivas deudas y está perdiendo su autonomía financiera. Si es inferior, la empresa puede tener un exceso de capitales propios. Sin embargo, esto puede variar en función de cada compañía.</t>
+  </si>
+  <si>
+    <t>debt ratio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -217,8 +223,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,6 +267,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="15">
     <border>
@@ -416,7 +434,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -429,30 +447,158 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -460,132 +606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -902,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87FDC2B-0802-49B3-A17D-70BA31F47175}">
-  <dimension ref="A1:W33"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -916,22 +936,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -942,29 +962,29 @@
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="47" t="s">
+      <c r="D3" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="49"/>
-      <c r="J3" s="56" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="J3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="56"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -976,13 +996,13 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="31"/>
-      <c r="B5" s="32"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" t="s">
         <v>33</v>
       </c>
@@ -997,118 +1017,118 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="19"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="47" t="s">
+      <c r="B11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="48"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50" t="s">
+      <c r="E11" s="52"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="52"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="28" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="37" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="38"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="38"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="19"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E17" s="45" t="s">
+      <c r="E17" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="7"/>
@@ -1126,51 +1146,51 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="10"/>
-      <c r="P18" s="56" t="s">
+      <c r="P18" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="56"/>
-      <c r="S18" s="56" t="s">
+      <c r="Q18" s="61"/>
+      <c r="S18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="56"/>
-      <c r="V18" s="56" t="s">
+      <c r="T18" s="61"/>
+      <c r="V18" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="56"/>
+      <c r="W18" s="61"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="58" t="s">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="59"/>
-      <c r="F19" s="26" t="s">
+      <c r="E19" s="40"/>
+      <c r="F19" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="27"/>
-      <c r="H19" s="60" t="s">
+      <c r="G19" s="42"/>
+      <c r="H19" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="58" t="s">
+      <c r="I19" s="44"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="63"/>
-      <c r="M19" s="59"/>
-      <c r="P19" s="57" t="s">
+      <c r="L19" s="46"/>
+      <c r="M19" s="40"/>
+      <c r="P19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="57"/>
-      <c r="S19" s="57" t="s">
+      <c r="Q19" s="14"/>
+      <c r="S19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T19" s="57"/>
+      <c r="T19" s="14"/>
       <c r="V19" t="s">
         <v>38</v>
       </c>
@@ -1179,285 +1199,285 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="37" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="37" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="15"/>
-      <c r="H20" s="37" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="37" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="14"/>
-      <c r="M20" s="15"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="38"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="17"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="38"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="17"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="38"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="38"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="17"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="38"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="17"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="19"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E26" s="43" t="s">
+      <c r="E26" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="43"/>
-      <c r="G26" s="43"/>
-      <c r="H26" s="43"/>
-      <c r="I26" s="43"/>
-      <c r="J26" s="43"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="22"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
     </row>
     <row r="28" spans="1:23" ht="76.5" customHeight="1" thickBot="1">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="58" t="s">
+      <c r="B28" s="37"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="63"/>
-      <c r="F28" s="63"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="58" t="s">
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="63"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="60" t="s">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46"/>
+      <c r="K28" s="46"/>
+      <c r="L28" s="40"/>
+      <c r="M28" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="61"/>
-      <c r="O28" s="61"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="58" t="s">
+      <c r="N28" s="44"/>
+      <c r="O28" s="44"/>
+      <c r="P28" s="45"/>
+      <c r="Q28" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="63"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="12" t="s">
+      <c r="R28" s="46"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="12"/>
-      <c r="V28" s="12"/>
-      <c r="W28" s="13"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="29"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="37" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="37" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="37" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="37" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="14"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="14" t="s">
+      <c r="R29" s="25"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="14"/>
-      <c r="V29" s="14"/>
-      <c r="W29" s="15"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="26"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="38"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="16"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="17"/>
-      <c r="Q30" s="38"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="41"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="17"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="38"/>
-      <c r="N31" s="16"/>
-      <c r="O31" s="16"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="17"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="19"/>
-      <c r="Q32" s="39"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="42"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
-      <c r="W32" s="19"/>
-    </row>
-    <row r="33" spans="8:20">
-      <c r="H33" s="64" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="32"/>
+    </row>
+    <row r="33" spans="1:24">
+      <c r="H33" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="64"/>
-      <c r="J33" s="64"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="64"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="60"/>
+      <c r="K33" s="60"/>
+      <c r="L33" s="60"/>
       <c r="M33" t="s">
         <v>42</v>
       </c>
@@ -1465,16 +1485,111 @@
         <v>44</v>
       </c>
     </row>
+    <row r="35" spans="1:24" ht="18" customHeight="1">
+      <c r="Q35" s="12"/>
+    </row>
+    <row r="37" spans="1:24">
+      <c r="A37" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
+      <c r="A38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
+    </row>
+    <row r="39" spans="1:24">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
+    </row>
+    <row r="40" spans="1:24">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="H33:L33"/>
+  <mergeCells count="46">
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W32"/>
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:S28"/>
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="V18:W18"/>
     <mergeCell ref="P18:Q18"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="S18:T18"/>
     <mergeCell ref="S19:T19"/>
-    <mergeCell ref="E26:J26"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C9:F9"/>
@@ -1499,19 +1614,13 @@
     <mergeCell ref="F20:G24"/>
     <mergeCell ref="H20:J24"/>
     <mergeCell ref="K20:M24"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W32"/>
-    <mergeCell ref="A27:W27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="A38:X40"/>
     <mergeCell ref="A29:C32"/>
     <mergeCell ref="D29:G32"/>
     <mergeCell ref="H29:L32"/>
     <mergeCell ref="M29:P32"/>
     <mergeCell ref="Q29:S32"/>
+    <mergeCell ref="H33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/definicao-variaveis.xlsx
+++ b/definicao-variaveis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Laboratoria\2- BootCamp\Projetos\Projeto3-Risco-Relativo\Risco-Relativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBACBBA7-9579-4EDA-964C-00B5FAEC88C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831792BD-A9F6-4A5F-B92D-A7B4E77C31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{915B2B48-E169-42BD-868F-4EBC9A772E1A}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" xr2:uid="{915B2B48-E169-42BD-868F-4EBC9A772E1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -449,62 +449,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -515,97 +605,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,7 +924,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87FDC2B-0802-49B3-A17D-70BA31F47175}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
@@ -936,22 +936,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="50" t="s">
+      <c r="C2" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="50"/>
+      <c r="D2" s="39"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -962,29 +962,29 @@
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="53"/>
-      <c r="J3" s="61" t="s">
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="42"/>
+      <c r="J3" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="61"/>
+      <c r="K3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="28" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="20"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -996,13 +996,13 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="29"/>
+      <c r="A5" s="49"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="20"/>
       <c r="H5" t="s">
         <v>33</v>
       </c>
@@ -1017,118 +1017,118 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="A6" s="49"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="19"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="32"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="51" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="52"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="54" t="s">
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="55" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="15" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="24" t="s">
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="18"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="29"/>
+      <c r="A13" s="44"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="29"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="20"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="30"/>
-      <c r="B15" s="31"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="32"/>
+      <c r="A15" s="45"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E17" s="48" t="s">
+      <c r="E17" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="7"/>
@@ -1146,51 +1146,51 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="10"/>
-      <c r="P18" s="61" t="s">
+      <c r="P18" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="61"/>
-      <c r="S18" s="61" t="s">
+      <c r="Q18" s="35"/>
+      <c r="S18" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="61"/>
-      <c r="V18" s="61" t="s">
+      <c r="T18" s="35"/>
+      <c r="V18" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="61"/>
+      <c r="W18" s="35"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A19" s="36" t="s">
+      <c r="A19" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39" t="s">
+      <c r="B19" s="27"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="40"/>
-      <c r="F19" s="41" t="s">
+      <c r="E19" s="31"/>
+      <c r="F19" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="43" t="s">
+      <c r="G19" s="62"/>
+      <c r="H19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="44"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="39" t="s">
+      <c r="I19" s="33"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="46"/>
-      <c r="M19" s="40"/>
-      <c r="P19" s="14" t="s">
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="P19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="14"/>
-      <c r="S19" s="14" t="s">
+      <c r="Q19" s="36"/>
+      <c r="S19" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="T19" s="14"/>
+      <c r="T19" s="36"/>
       <c r="V19" t="s">
         <v>38</v>
       </c>
@@ -1199,285 +1199,285 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="24" t="s">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="26"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="18"/>
+      <c r="F20" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="26"/>
-      <c r="H20" s="24" t="s">
+      <c r="G20" s="18"/>
+      <c r="H20" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="24" t="s">
+      <c r="I20" s="17"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="25"/>
-      <c r="M20" s="26"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="18"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="27"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="29"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="44"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="27"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="44"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="44"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="20"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="27"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="29"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="20"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="30"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="32"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E26" s="49" t="s">
+      <c r="E26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="64" t="s">
+      <c r="A27" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="65"/>
-      <c r="F27" s="65"/>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
-      <c r="I27" s="65"/>
-      <c r="J27" s="65"/>
-      <c r="K27" s="65"/>
-      <c r="L27" s="65"/>
-      <c r="M27" s="65"/>
-      <c r="N27" s="65"/>
-      <c r="O27" s="65"/>
-      <c r="P27" s="65"/>
-      <c r="Q27" s="65"/>
-      <c r="R27" s="65"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
+      <c r="U27" s="24"/>
+      <c r="V27" s="24"/>
+      <c r="W27" s="25"/>
     </row>
     <row r="28" spans="1:23" ht="76.5" customHeight="1" thickBot="1">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="37"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="39" t="s">
+      <c r="B28" s="27"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="39" t="s">
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="46"/>
-      <c r="J28" s="46"/>
-      <c r="K28" s="46"/>
-      <c r="L28" s="40"/>
-      <c r="M28" s="43" t="s">
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="45"/>
-      <c r="Q28" s="39" t="s">
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="46"/>
-      <c r="S28" s="40"/>
-      <c r="T28" s="62" t="s">
+      <c r="R28" s="30"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="63"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="16"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="24" t="s">
+      <c r="B29" s="47"/>
+      <c r="C29" s="48"/>
+      <c r="D29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="24" t="s">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="25"/>
-      <c r="J29" s="25"/>
-      <c r="K29" s="25"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="24" t="s">
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="25"/>
-      <c r="O29" s="25"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="24" t="s">
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="25"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="25" t="s">
+      <c r="R29" s="17"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="25"/>
-      <c r="V29" s="25"/>
-      <c r="W29" s="26"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="18"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
-      <c r="L30" s="29"/>
-      <c r="M30" s="27"/>
-      <c r="N30" s="28"/>
-      <c r="O30" s="28"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="27"/>
-      <c r="R30" s="28"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="28"/>
-      <c r="U30" s="28"/>
-      <c r="V30" s="28"/>
-      <c r="W30" s="29"/>
+      <c r="A30" s="49"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="44"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="20"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="28"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="28"/>
-      <c r="O31" s="28"/>
-      <c r="P31" s="29"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="28"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="28"/>
-      <c r="U31" s="28"/>
-      <c r="V31" s="28"/>
-      <c r="W31" s="29"/>
+      <c r="A31" s="49"/>
+      <c r="B31" s="50"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="20"/>
+      <c r="H31" s="44"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="44"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="20"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="21"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="30"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="31"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="31"/>
-      <c r="O32" s="31"/>
-      <c r="P32" s="32"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="31"/>
-      <c r="U32" s="31"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="32"/>
+      <c r="A32" s="52"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="45"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="45"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="45"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
+      <c r="V32" s="21"/>
+      <c r="W32" s="22"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="H33" s="60" t="s">
+      <c r="H33" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="60"/>
-      <c r="J33" s="60"/>
-      <c r="K33" s="60"/>
-      <c r="L33" s="60"/>
+      <c r="I33" s="66"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
       <c r="M33" t="s">
         <v>42</v>
       </c>
@@ -1494,102 +1494,104 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="14"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="14"/>
-      <c r="R38" s="14"/>
-      <c r="S38" s="14"/>
-      <c r="T38" s="14"/>
-      <c r="U38" s="14"/>
-      <c r="V38" s="14"/>
-      <c r="W38" s="14"/>
-      <c r="X38" s="14"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="36"/>
+      <c r="M38" s="36"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="36"/>
+      <c r="Q38" s="36"/>
+      <c r="R38" s="36"/>
+      <c r="S38" s="36"/>
+      <c r="T38" s="36"/>
+      <c r="U38" s="36"/>
+      <c r="V38" s="36"/>
+      <c r="W38" s="36"/>
+      <c r="X38" s="36"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="14"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="14"/>
-      <c r="R39" s="14"/>
-      <c r="S39" s="14"/>
-      <c r="T39" s="14"/>
-      <c r="U39" s="14"/>
-      <c r="V39" s="14"/>
-      <c r="W39" s="14"/>
-      <c r="X39" s="14"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="36"/>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="36"/>
+      <c r="Q39" s="36"/>
+      <c r="R39" s="36"/>
+      <c r="S39" s="36"/>
+      <c r="T39" s="36"/>
+      <c r="U39" s="36"/>
+      <c r="V39" s="36"/>
+      <c r="W39" s="36"/>
+      <c r="X39" s="36"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="14"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
-      <c r="L40" s="14"/>
-      <c r="M40" s="14"/>
-      <c r="N40" s="14"/>
-      <c r="O40" s="14"/>
-      <c r="P40" s="14"/>
-      <c r="Q40" s="14"/>
-      <c r="R40" s="14"/>
-      <c r="S40" s="14"/>
-      <c r="T40" s="14"/>
-      <c r="U40" s="14"/>
-      <c r="V40" s="14"/>
-      <c r="W40" s="14"/>
-      <c r="X40" s="14"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="36"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="36"/>
+      <c r="P40" s="36"/>
+      <c r="Q40" s="36"/>
+      <c r="R40" s="36"/>
+      <c r="S40" s="36"/>
+      <c r="T40" s="36"/>
+      <c r="U40" s="36"/>
+      <c r="V40" s="36"/>
+      <c r="W40" s="36"/>
+      <c r="X40" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W32"/>
-    <mergeCell ref="A27:W27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:S28"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="A38:X40"/>
+    <mergeCell ref="A29:C32"/>
+    <mergeCell ref="D29:G32"/>
+    <mergeCell ref="H29:L32"/>
+    <mergeCell ref="M29:P32"/>
+    <mergeCell ref="Q29:S32"/>
+    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="A20:C24"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="F20:G24"/>
+    <mergeCell ref="H20:J24"/>
+    <mergeCell ref="K20:M24"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C9:F9"/>
@@ -1604,23 +1606,21 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A4:C7"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
-    <mergeCell ref="A20:C24"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="F20:G24"/>
-    <mergeCell ref="H20:J24"/>
-    <mergeCell ref="K20:M24"/>
-    <mergeCell ref="A38:X40"/>
-    <mergeCell ref="A29:C32"/>
-    <mergeCell ref="D29:G32"/>
-    <mergeCell ref="H29:L32"/>
-    <mergeCell ref="M29:P32"/>
-    <mergeCell ref="Q29:S32"/>
-    <mergeCell ref="H33:L33"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W32"/>
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:S28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/definicao-variaveis.xlsx
+++ b/definicao-variaveis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Laboratoria\2- BootCamp\Projetos\Projeto3-Risco-Relativo\Risco-Relativo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831792BD-A9F6-4A5F-B92D-A7B4E77C31BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0516EC65-192C-417F-BD73-8774DD6AD260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="20460" windowHeight="10770" xr2:uid="{915B2B48-E169-42BD-868F-4EBC9A772E1A}"/>
   </bookViews>
@@ -449,7 +449,148 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -458,24 +599,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -483,129 +606,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -924,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87FDC2B-0802-49B3-A17D-70BA31F47175}">
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -936,22 +936,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" thickBot="1">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="39"/>
+      <c r="D2" s="51"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="6"/>
@@ -962,29 +962,29 @@
         <v>3</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="42"/>
-      <c r="J3" s="35" t="s">
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="54"/>
+      <c r="J3" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="35"/>
+      <c r="K3" s="61"/>
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="19" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="20"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="29"/>
       <c r="I4">
         <v>1</v>
       </c>
@@ -996,13 +996,13 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
       <c r="H5" t="s">
         <v>33</v>
       </c>
@@ -1017,30 +1017,30 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="29"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="32"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1">
       <c r="A10" s="58" t="s">
@@ -1056,16 +1056,16 @@
       <c r="I10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="42"/>
-      <c r="D11" s="40" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="41"/>
-      <c r="F11" s="42"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="54"/>
       <c r="G11" s="55" t="s">
         <v>9</v>
       </c>
@@ -1074,61 +1074,61 @@
       <c r="M11" s="11"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="46" t="s">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="43" t="s">
+      <c r="E12" s="16"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="17"/>
-      <c r="I12" s="18"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="26"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="44"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="20"/>
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="44"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="20"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="22"/>
+      <c r="A15" s="30"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="17" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
     </row>
     <row r="18" spans="1:23" ht="15.75" thickBot="1">
       <c r="A18" s="7"/>
@@ -1146,51 +1146,51 @@
       <c r="K18" s="8"/>
       <c r="L18" s="8"/>
       <c r="M18" s="10"/>
-      <c r="P18" s="35" t="s">
+      <c r="P18" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="Q18" s="35"/>
-      <c r="S18" s="35" t="s">
+      <c r="Q18" s="61"/>
+      <c r="S18" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="35"/>
-      <c r="V18" s="35" t="s">
+      <c r="T18" s="61"/>
+      <c r="V18" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="W18" s="35"/>
+      <c r="W18" s="61"/>
     </row>
     <row r="19" spans="1:23" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="61" t="s">
+      <c r="E19" s="41"/>
+      <c r="F19" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G19" s="62"/>
-      <c r="H19" s="32" t="s">
+      <c r="G19" s="43"/>
+      <c r="H19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="I19" s="33"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="29" t="s">
+      <c r="I19" s="45"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="30"/>
-      <c r="M19" s="31"/>
-      <c r="P19" s="36" t="s">
+      <c r="L19" s="47"/>
+      <c r="M19" s="41"/>
+      <c r="P19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="Q19" s="36"/>
-      <c r="S19" s="36" t="s">
+      <c r="Q19" s="14"/>
+      <c r="S19" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="T19" s="36"/>
+      <c r="T19" s="14"/>
       <c r="V19" t="s">
         <v>38</v>
       </c>
@@ -1199,285 +1199,285 @@
       </c>
     </row>
     <row r="20" spans="1:23" ht="29.25" customHeight="1">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="43" t="s">
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="18"/>
-      <c r="F20" s="43" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="G20" s="18"/>
-      <c r="H20" s="43" t="s">
+      <c r="G20" s="26"/>
+      <c r="H20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="43" t="s">
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="26"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="44"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="20"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="44"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="20"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="44"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="20"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
       <c r="N23" s="11"/>
     </row>
     <row r="24" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="45"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="31"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
     </row>
     <row r="26" spans="1:23" ht="15.75" thickBot="1">
-      <c r="E26" s="14" t="s">
+      <c r="E26" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
     </row>
     <row r="27" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A27" s="23" t="s">
+      <c r="A27" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="24"/>
-      <c r="R27" s="24"/>
-      <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
-      <c r="U27" s="24"/>
-      <c r="V27" s="24"/>
-      <c r="W27" s="25"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="65"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
+      <c r="I27" s="65"/>
+      <c r="J27" s="65"/>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
     </row>
     <row r="28" spans="1:23" ht="76.5" customHeight="1" thickBot="1">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="29" t="s">
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="32" t="s">
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="N28" s="33"/>
-      <c r="O28" s="33"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="29" t="s">
+      <c r="N28" s="45"/>
+      <c r="O28" s="45"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="R28" s="30"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="15" t="s">
+      <c r="R28" s="47"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="16"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="63"/>
     </row>
     <row r="29" spans="1:23" ht="15" customHeight="1">
-      <c r="A29" s="46" t="s">
+      <c r="A29" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="47"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="43" t="s">
+      <c r="B29" s="16"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="43" t="s">
+      <c r="E29" s="25"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="43" t="s">
+      <c r="I29" s="25"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="N29" s="17"/>
-      <c r="O29" s="17"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="43" t="s">
+      <c r="N29" s="25"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="17"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="17" t="s">
+      <c r="R29" s="25"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="18"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="25"/>
+      <c r="W29" s="26"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="49"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="44"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="44"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="44"/>
-      <c r="R30" s="19"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="19"/>
-      <c r="U30" s="19"/>
-      <c r="V30" s="19"/>
-      <c r="W30" s="20"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="28"/>
+      <c r="O30" s="28"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="28"/>
+      <c r="S30" s="34"/>
+      <c r="T30" s="28"/>
+      <c r="U30" s="28"/>
+      <c r="V30" s="28"/>
+      <c r="W30" s="29"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="49"/>
-      <c r="B31" s="50"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="19"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="44"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="44"/>
-      <c r="N31" s="19"/>
-      <c r="O31" s="19"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="44"/>
-      <c r="R31" s="19"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="19"/>
-      <c r="U31" s="19"/>
-      <c r="V31" s="19"/>
-      <c r="W31" s="20"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="27"/>
+      <c r="N31" s="28"/>
+      <c r="O31" s="28"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="28"/>
+      <c r="S31" s="34"/>
+      <c r="T31" s="28"/>
+      <c r="U31" s="28"/>
+      <c r="V31" s="28"/>
+      <c r="W31" s="29"/>
     </row>
     <row r="32" spans="1:23" ht="15.75" thickBot="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="45"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="45"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="45"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
-      <c r="V32" s="21"/>
-      <c r="W32" s="22"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="31"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="31"/>
+      <c r="O32" s="31"/>
+      <c r="P32" s="32"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="31"/>
+      <c r="U32" s="31"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="32"/>
     </row>
     <row r="33" spans="1:24">
-      <c r="H33" s="66" t="s">
+      <c r="H33" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
       <c r="M33" t="s">
         <v>42</v>
       </c>
@@ -1494,104 +1494,102 @@
       </c>
     </row>
     <row r="38" spans="1:24">
-      <c r="A38" s="36" t="s">
+      <c r="A38" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="36"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="36"/>
-      <c r="Q38" s="36"/>
-      <c r="R38" s="36"/>
-      <c r="S38" s="36"/>
-      <c r="T38" s="36"/>
-      <c r="U38" s="36"/>
-      <c r="V38" s="36"/>
-      <c r="W38" s="36"/>
-      <c r="X38" s="36"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="14"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
+      <c r="U38" s="14"/>
+      <c r="V38" s="14"/>
+      <c r="W38" s="14"/>
+      <c r="X38" s="14"/>
     </row>
     <row r="39" spans="1:24">
-      <c r="A39" s="36"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="36"/>
-      <c r="Q39" s="36"/>
-      <c r="R39" s="36"/>
-      <c r="S39" s="36"/>
-      <c r="T39" s="36"/>
-      <c r="U39" s="36"/>
-      <c r="V39" s="36"/>
-      <c r="W39" s="36"/>
-      <c r="X39" s="36"/>
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="14"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
+      <c r="U39" s="14"/>
+      <c r="V39" s="14"/>
+      <c r="W39" s="14"/>
+      <c r="X39" s="14"/>
     </row>
     <row r="40" spans="1:24">
-      <c r="A40" s="36"/>
-      <c r="B40" s="36"/>
-      <c r="C40" s="36"/>
-      <c r="D40" s="36"/>
-      <c r="E40" s="36"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="36"/>
-      <c r="I40" s="36"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="36"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="36"/>
-      <c r="P40" s="36"/>
-      <c r="Q40" s="36"/>
-      <c r="R40" s="36"/>
-      <c r="S40" s="36"/>
-      <c r="T40" s="36"/>
-      <c r="U40" s="36"/>
-      <c r="V40" s="36"/>
-      <c r="W40" s="36"/>
-      <c r="X40" s="36"/>
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+      <c r="O40" s="14"/>
+      <c r="P40" s="14"/>
+      <c r="Q40" s="14"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
+      <c r="U40" s="14"/>
+      <c r="V40" s="14"/>
+      <c r="W40" s="14"/>
+      <c r="X40" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="A38:X40"/>
-    <mergeCell ref="A29:C32"/>
-    <mergeCell ref="D29:G32"/>
-    <mergeCell ref="H29:L32"/>
-    <mergeCell ref="M29:P32"/>
-    <mergeCell ref="Q29:S32"/>
-    <mergeCell ref="H33:L33"/>
-    <mergeCell ref="A20:C24"/>
-    <mergeCell ref="D20:E24"/>
-    <mergeCell ref="F20:G24"/>
-    <mergeCell ref="H20:J24"/>
-    <mergeCell ref="K20:M24"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="T29:W32"/>
+    <mergeCell ref="A27:W27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="S19:T19"/>
     <mergeCell ref="C1:H1"/>
     <mergeCell ref="E17:G17"/>
     <mergeCell ref="C9:F9"/>
@@ -1606,21 +1604,23 @@
     <mergeCell ref="G11:I11"/>
     <mergeCell ref="A10:I10"/>
     <mergeCell ref="A4:C7"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="S19:T19"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="T28:W28"/>
-    <mergeCell ref="T29:W32"/>
-    <mergeCell ref="A27:W27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:G28"/>
-    <mergeCell ref="H28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="Q28:S28"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="K19:M19"/>
+    <mergeCell ref="A20:C24"/>
+    <mergeCell ref="D20:E24"/>
+    <mergeCell ref="F20:G24"/>
+    <mergeCell ref="H20:J24"/>
+    <mergeCell ref="K20:M24"/>
+    <mergeCell ref="A38:X40"/>
+    <mergeCell ref="A29:C32"/>
+    <mergeCell ref="D29:G32"/>
+    <mergeCell ref="H29:L32"/>
+    <mergeCell ref="M29:P32"/>
+    <mergeCell ref="Q29:S32"/>
+    <mergeCell ref="H33:L33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
